--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02539451093088827</v>
+        <v>0.02298475267266129</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.01298081955306179</v>
+        <v>-9.501036952680323</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.175766583964011</v>
+        <v>-20.14067663198408</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02766315377067288</v>
+        <v>0.01563491815146175</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.967547546295267</v>
+        <v>-45.15829739710927</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03658673666517613</v>
+        <v>0.0359654750359742</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.8124493933576147</v>
+        <v>-2.496705080066181</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03357830064543654</v>
+        <v>0.04242900443491925</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.739455226010083</v>
+        <v>14.05178287467375</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00621269027471378</v>
+        <v>0.01161668585860568</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.291455177376829</v>
+        <v>77.08904913673248</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01402912866780225</v>
+        <v>0.0144964493920194</v>
       </c>
       <c r="H7" t="n">
-        <v>21.00198819332742</v>
+        <v>25.03265453713245</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0557019387787804</v>
+        <v>-0.05048888062489738</v>
       </c>
       <c r="H8" t="n">
-        <v>10.89955626936642</v>
+        <v>-0.5206386096409703</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04653989845376862</v>
+        <v>-0.05033806803980995</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.8014115944797057</v>
+        <v>-7.294288524727774</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03753723602762576</v>
+        <v>-0.04170076260994641</v>
       </c>
       <c r="H10" t="n">
-        <v>-9.199271671750928</v>
+        <v>-0.8720944195220574</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03566167887058821</v>
+        <v>-0.03371632804576223</v>
       </c>
       <c r="H11" t="n">
-        <v>-14.77392536196382</v>
+        <v>19.42302265195491</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05442102963597226</v>
+        <v>-0.0531084258957583</v>
       </c>
       <c r="H12" t="n">
-        <v>10.76194305448706</v>
+        <v>-8.090429088301745</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04401417031308407</v>
+        <v>-0.05714760270547058</v>
       </c>
       <c r="H13" t="n">
-        <v>-16.90053368271573</v>
+        <v>-7.895599357125286</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07525024683922715</v>
+        <v>-0.06632935415390005</v>
       </c>
       <c r="H14" t="n">
-        <v>1.338044877621743</v>
+        <v>10.67554791796848</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.07919351571340708</v>
+        <v>-0.07452476207423815</v>
       </c>
       <c r="H15" t="n">
-        <v>-11.95727989845459</v>
+        <v>17.14772719926602</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2795301608938703</v>
+        <v>-0.3007865700708056</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.55914883076694</v>
+        <v>-2.698492985632457</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3076434113272885</v>
+        <v>-0.2964568052234434</v>
       </c>
       <c r="H17" t="n">
-        <v>3.375313822496563</v>
+        <v>0.3836450045571957</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1491649428597663</v>
+        <v>-0.1331276029254292</v>
       </c>
       <c r="H18" t="n">
-        <v>1.951965922393315</v>
+        <v>9.009311594459394</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1518144657414886</v>
+        <v>-0.1578751080391215</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1694320339678272</v>
+        <v>-4.168333546743893</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1670915014137916</v>
+        <v>0.1644062994392327</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.109210857457107</v>
+        <v>-6.634129433309793</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1750072449473922</v>
+        <v>0.1836643641988634</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.616472579100244</v>
+        <v>2.20081832942798</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1303655034565264</v>
+        <v>0.129519138873811</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.5374432386654709</v>
+        <v>-1.183178368873328</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1416889961793049</v>
+        <v>0.1431295592141547</v>
       </c>
       <c r="H23" t="n">
-        <v>3.649127450199367</v>
+        <v>4.702936183590649</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09186697795300795</v>
+        <v>0.08614672481337232</v>
       </c>
       <c r="H24" t="n">
-        <v>4.174720195395975</v>
+        <v>-2.311895382327683</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09267442470539225</v>
+        <v>0.08710841525617177</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.1642108189687431</v>
+        <v>-6.160330543677117</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05948998280608384</v>
+        <v>0.0573405605340493</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.142341152806316</v>
+        <v>-9.533495979405913</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06009092305513983</v>
+        <v>0.06275844379826946</v>
       </c>
       <c r="H27" t="n">
-        <v>5.143564027582189</v>
+        <v>9.811034983100559</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1023770874538198</v>
+        <v>-0.1094730620598857</v>
       </c>
       <c r="H28" t="n">
-        <v>-6.833013873484299</v>
+        <v>0.3754110629368466</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1101480663624123</v>
+        <v>-0.1045083062295007</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.09110381531755</v>
+        <v>7.104198530416268</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1149201697635676</v>
+        <v>0.1215056369384423</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7153815380089629</v>
+        <v>6.486847421570574</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.121051912557076</v>
+        <v>0.1194107667707048</v>
       </c>
       <c r="H31" t="n">
-        <v>3.188686803692073</v>
+        <v>1.789719410515122</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09886419367635753</v>
+        <v>0.09839941545247154</v>
       </c>
       <c r="H32" t="n">
-        <v>1.267304903147255</v>
+        <v>0.7912292243763919</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09603195898625887</v>
+        <v>0.09868954323279618</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.1390729603637</v>
+        <v>1.596800024755823</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0586426386720424</v>
+        <v>0.06222565595206531</v>
       </c>
       <c r="H34" t="n">
-        <v>1.672999079959555</v>
+        <v>7.885136201765527</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05968386392505641</v>
+        <v>0.0655338049873555</v>
       </c>
       <c r="H35" t="n">
-        <v>5.926385905738937</v>
+        <v>16.30880878755869</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01945828921082802</v>
+        <v>0.01584896323801595</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2990410074110992</v>
+        <v>-18.30546886670165</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01766407364615774</v>
+        <v>0.01319246516272547</v>
       </c>
       <c r="H37" t="n">
-        <v>4.515935105613599</v>
+        <v>-21.94196760890415</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1984969331313619</v>
+        <v>-0.2010747165029968</v>
       </c>
       <c r="H38" t="n">
-        <v>1.412086064968924</v>
+        <v>-2.729075627563732</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2029273446131094</v>
+        <v>-0.2116497295342301</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.1260122648840768</v>
+        <v>-4.166851105963445</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1593500150890996</v>
+        <v>0.1550610861688888</v>
       </c>
       <c r="H40" t="n">
-        <v>7.699925466380305</v>
+        <v>4.801166248949248</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1601898989171791</v>
+        <v>0.1524443712941203</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3638125517289983</v>
+        <v>-4.488994571127271</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1128442222598919</v>
+        <v>0.1076597479399578</v>
       </c>
       <c r="H42" t="n">
-        <v>4.593618016842097</v>
+        <v>-0.2117935122340272</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1141066927895446</v>
+        <v>0.1201626565617271</v>
       </c>
       <c r="H43" t="n">
-        <v>1.942952360159598</v>
+        <v>7.353352146797008</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.04658074824046862</v>
+        <v>-0.0482598719914414</v>
       </c>
       <c r="H44" t="n">
-        <v>13.02254219851173</v>
+        <v>-17.09673254902153</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04921748857562285</v>
+        <v>-0.05326082729656531</v>
       </c>
       <c r="H45" t="n">
-        <v>18.22647556096519</v>
+        <v>-27.93907367010507</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04367673038793463</v>
+        <v>0.04602192729660954</v>
       </c>
       <c r="H46" t="n">
-        <v>1.511627812604204</v>
+        <v>6.962236263058194</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04552999452361186</v>
+        <v>0.04883246116117951</v>
       </c>
       <c r="H47" t="n">
-        <v>-7.851413292395283</v>
+        <v>-1.167519817665013</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0132009497181772</v>
+        <v>0.01688642677988247</v>
       </c>
       <c r="H48" t="n">
-        <v>6.430949920604564</v>
+        <v>36.14463211483177</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01812228927848058</v>
+        <v>0.00914401515691185</v>
       </c>
       <c r="H49" t="n">
-        <v>-4.179744724955031</v>
+        <v>-51.65170067036722</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08436462855729997</v>
+        <v>0.08952050595045864</v>
       </c>
       <c r="H50" t="n">
-        <v>1.264545183889918</v>
+        <v>7.45324758406111</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09189767266891692</v>
+        <v>0.08501844689385496</v>
       </c>
       <c r="H51" t="n">
-        <v>4.910107607890994</v>
+        <v>-2.943195912871971</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03682444666456912</v>
+        <v>0.02894940687355145</v>
       </c>
       <c r="H52" t="n">
-        <v>2.507212211063831</v>
+        <v>-19.41432220821963</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03939784449459006</v>
+        <v>0.03669180342627985</v>
       </c>
       <c r="H53" t="n">
-        <v>27.59275612328561</v>
+        <v>18.82904728292225</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06567693366180526</v>
+        <v>0.06593990376165471</v>
       </c>
       <c r="H54" t="n">
-        <v>9.96105192091165</v>
+        <v>10.40133539931054</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06967151309737801</v>
+        <v>0.0694027460004155</v>
       </c>
       <c r="H55" t="n">
-        <v>7.572264208909702</v>
+        <v>7.157289940664609</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07332044090753689</v>
+        <v>0.07776909207081045</v>
       </c>
       <c r="H56" t="n">
-        <v>-3.654630019629133</v>
+        <v>2.191037804159691</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07943191379315426</v>
+        <v>0.07200677021471097</v>
       </c>
       <c r="H57" t="n">
-        <v>3.972343025878637</v>
+        <v>-5.7467930025528</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04611526035940167</v>
+        <v>0.04375296149121594</v>
       </c>
       <c r="H58" t="n">
-        <v>-1.892540641339125</v>
+        <v>-6.918190250542571</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04363224337131943</v>
+        <v>0.04825863281660554</v>
       </c>
       <c r="H59" t="n">
-        <v>-1.342626764621589</v>
+        <v>9.118156247416447</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04275095266788204</v>
+        <v>0.0400176884102528</v>
       </c>
       <c r="H60" t="n">
-        <v>4.97689655323728</v>
+        <v>-1.734757370708387</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04353624542744396</v>
+        <v>0.03954373155712528</v>
       </c>
       <c r="H61" t="n">
-        <v>7.056824097794685</v>
+        <v>-2.760877243379671</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02660919251063785</v>
+        <v>-0.02825295927474377</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.8304109077818771</v>
+        <v>-5.295730443356832</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.03255836179637292</v>
+        <v>-0.02610604351596496</v>
       </c>
       <c r="H63" t="n">
-        <v>3.130350659236308</v>
+        <v>17.30771225637402</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0826594803725986</v>
+        <v>0.08426241016604656</v>
       </c>
       <c r="H64" t="n">
-        <v>-5.329439420434042</v>
+        <v>-3.493591173731159</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08493739936453365</v>
+        <v>0.07918040903105113</v>
       </c>
       <c r="H65" t="n">
-        <v>-1.510718923585149</v>
+        <v>-8.186245174101833</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01548957079260164</v>
+        <v>0.01486212689201533</v>
       </c>
       <c r="H66" t="n">
-        <v>-27.59830035440255</v>
+        <v>-30.53111272493061</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02177266611229612</v>
+        <v>0.02077747325095634</v>
       </c>
       <c r="H67" t="n">
-        <v>3.746540838583225</v>
+        <v>-0.9955434012951754</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.001778437712104636</v>
+        <v>-0.004284388559068665</v>
       </c>
       <c r="H68" t="n">
-        <v>-947.2540463165767</v>
+        <v>-2141.097935540068</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>0.00238926354512151</v>
+        <v>-0.00322727576816392</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.6045305767432156</v>
+        <v>-234.2575165430906</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.06868143240349192</v>
+        <v>-0.07460422690603385</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9876864021313738</v>
+        <v>-9.696434791842625</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07194733831000268</v>
+        <v>-0.06434393023854222</v>
       </c>
       <c r="H71" t="n">
-        <v>-3.985603749648319</v>
+        <v>14.13242297290833</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04743845805468123</v>
+        <v>0.05222037815470758</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8147020771054723</v>
+        <v>10.97708656449727</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05429530405084414</v>
+        <v>0.04483812836544827</v>
       </c>
       <c r="H73" t="n">
-        <v>5.720621089561452</v>
+        <v>-12.69383490605989</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04686350459004347</v>
+        <v>0.05176182840110882</v>
       </c>
       <c r="H74" t="n">
-        <v>8.553717878544862</v>
+        <v>19.90010064943813</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.05217925168503414</v>
+        <v>0.04474787497271315</v>
       </c>
       <c r="H75" t="n">
-        <v>14.7949896909283</v>
+        <v>-1.554129653091943</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03047047027091715</v>
+        <v>0.02739145424177441</v>
       </c>
       <c r="H76" t="n">
-        <v>-1.662499170918715</v>
+        <v>-11.59942297375129</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03352196856258902</v>
+        <v>0.03751251123200663</v>
       </c>
       <c r="H77" t="n">
-        <v>14.0871806048172</v>
+        <v>27.668416485611</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03436871902772467</v>
+        <v>0.03146661799921712</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.2929928339270407</v>
+        <v>-8.712271068086658</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03704111327626407</v>
+        <v>0.04129601150546903</v>
       </c>
       <c r="H79" t="n">
-        <v>15.37712052491213</v>
+        <v>28.63044534133432</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03199479703783355</v>
+        <v>0.03289001532244794</v>
       </c>
       <c r="H80" t="n">
-        <v>8.580423791859468</v>
+        <v>11.61851716106291</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03574866806308194</v>
+        <v>0.03748097256424428</v>
       </c>
       <c r="H81" t="n">
-        <v>2.619219280838051</v>
+        <v>7.591928617932024</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05519837802604327</v>
+        <v>0.05164838274503469</v>
       </c>
       <c r="H82" t="n">
-        <v>12.30368885529604</v>
+        <v>5.081056964046344</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05258911329524864</v>
+        <v>0.05194138546778179</v>
       </c>
       <c r="H83" t="n">
-        <v>1.945072289568133</v>
+        <v>0.68943864112937</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03638900240880134</v>
+        <v>0.03867029518174885</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.9771384656894182</v>
+        <v>5.230784901843385</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03844935575222641</v>
+        <v>0.03407762794704772</v>
       </c>
       <c r="H85" t="n">
-        <v>17.96891503983404</v>
+        <v>4.555738773635035</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02960177297821343</v>
+        <v>0.02890584864552448</v>
       </c>
       <c r="H86" t="n">
-        <v>10.27437320271457</v>
+        <v>7.681872421079872</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02468735118814705</v>
+        <v>0.02661747326946653</v>
       </c>
       <c r="H87" t="n">
-        <v>-26.58143450278341</v>
+        <v>-20.84137784927677</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05046859741447529</v>
+        <v>0.05398651745781525</v>
       </c>
       <c r="H88" t="n">
-        <v>-9.353772430948409</v>
+        <v>-3.03526553448254</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04853705838411684</v>
+        <v>0.05614510821688138</v>
       </c>
       <c r="H89" t="n">
-        <v>-9.767332829662784</v>
+        <v>4.376388508831633</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.01774810605196373</v>
+        <v>-0.01907871327696845</v>
       </c>
       <c r="H90" t="n">
-        <v>-25.86083895669978</v>
+        <v>20.30249357318836</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02589422355140136</v>
+        <v>-0.01960000609958248</v>
       </c>
       <c r="H91" t="n">
-        <v>24.97666337445683</v>
+        <v>5.401938019792281</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03956378855377773</v>
+        <v>0.0404616608456055</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.1854378379949735</v>
+        <v>2.079783288752445</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04358381240232119</v>
+        <v>0.03814814609923719</v>
       </c>
       <c r="H93" t="n">
-        <v>-9.765144027738435</v>
+        <v>-21.01901419045825</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04553935650116233</v>
+        <v>0.04604259190406632</v>
       </c>
       <c r="H94" t="n">
-        <v>2.327912011422562</v>
+        <v>3.45869276867982</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05410654327167588</v>
+        <v>0.05208674589452987</v>
       </c>
       <c r="H95" t="n">
-        <v>20.85050612935483</v>
+        <v>16.33915647463352</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1480966095498763</v>
+        <v>-0.1484948931683464</v>
       </c>
       <c r="H96" t="n">
-        <v>0.7712233268976796</v>
+        <v>-1.04223241742503</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1535702653041713</v>
+        <v>-0.1603610106599853</v>
       </c>
       <c r="H97" t="n">
-        <v>1.825196214101961</v>
+        <v>-6.327819016284344</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1411957656827051</v>
+        <v>0.1369437242626776</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.783053431605522</v>
+        <v>-3.770923247230901</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1464026779181004</v>
+        <v>0.1434557159475581</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.447579899391065</v>
+        <v>-2.451485840756875</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02630007430457459</v>
+        <v>0.0219840608890291</v>
       </c>
       <c r="H100" t="n">
-        <v>13.10979514612393</v>
+        <v>-5.452258619456471</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02489020580733157</v>
+        <v>0.03038382345084465</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.882764724232459</v>
+        <v>11.22808752077569</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01097143957595631</v>
+        <v>-0.01104625805207897</v>
       </c>
       <c r="H102" t="n">
-        <v>41.72890993196355</v>
+        <v>-42.69541400740625</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.01076363264291289</v>
+        <v>-0.007845397629706929</v>
       </c>
       <c r="H103" t="n">
-        <v>40.50572391285712</v>
+        <v>-2.411825999281884</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07837877824220432</v>
+        <v>0.07817278475651675</v>
       </c>
       <c r="H104" t="n">
-        <v>7.68007478656339</v>
+        <v>7.397072238656373</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07728767736167678</v>
+        <v>0.07542712909770764</v>
       </c>
       <c r="H105" t="n">
-        <v>3.341215845805507</v>
+        <v>0.8534800734052377</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3648835430197828</v>
+        <v>-0.3556037070760355</v>
       </c>
       <c r="H106" t="n">
-        <v>5.272956043431074</v>
+        <v>-2.595620274019852</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3559092806147983</v>
+        <v>-0.3453275224502168</v>
       </c>
       <c r="H107" t="n">
-        <v>-5.40697211156524</v>
+        <v>8.219375720265385</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2300167120778583</v>
+        <v>0.2301196815488995</v>
       </c>
       <c r="H108" t="n">
-        <v>2.266110079440336</v>
+        <v>2.31189061062521</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2289411782725982</v>
+        <v>0.2333647487757188</v>
       </c>
       <c r="H109" t="n">
-        <v>2.827790176869712</v>
+        <v>4.814614840565082</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.05208221396123592</v>
+        <v>0.06338941331308716</v>
       </c>
       <c r="H110" t="n">
-        <v>-11.16434992608298</v>
+        <v>8.122126752590864</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06942905124266287</v>
+        <v>0.06915382342828144</v>
       </c>
       <c r="H111" t="n">
-        <v>20.86776791067177</v>
+        <v>20.38862883278136</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1331063891445375</v>
+        <v>0.1288227780881597</v>
       </c>
       <c r="H112" t="n">
-        <v>3.74063403757957</v>
+        <v>0.4020675734523511</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1429658848886323</v>
+        <v>0.1423264490251436</v>
       </c>
       <c r="H113" t="n">
-        <v>9.187337971647496</v>
+        <v>8.698981607523852</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02298475267266129</v>
+        <v>0.02369225191568486</v>
       </c>
       <c r="H2" t="n">
-        <v>-9.501036952680323</v>
+        <v>-6.715366436131612</v>
       </c>
       <c r="I2" t="n">
-        <v>-20.14067663198408</v>
+        <v>-5.422589412146202</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01563491815146175</v>
+        <v>0.02597092785007001</v>
       </c>
       <c r="H3" t="n">
-        <v>-45.15829739710927</v>
+        <v>-8.903271019585663</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0359654750359742</v>
+        <v>0.04206278931936616</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.496705080066181</v>
+        <v>14.03326518164839</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04242900443491925</v>
+        <v>0.0412139437019679</v>
       </c>
       <c r="H5" t="n">
-        <v>14.05178287467375</v>
+        <v>10.78562462420918</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01161668585860568</v>
+        <v>0.01204852685070897</v>
       </c>
       <c r="H6" t="n">
-        <v>77.08904913673248</v>
+        <v>83.67219269425433</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0144964493920194</v>
+        <v>0.01278601581237906</v>
       </c>
       <c r="H7" t="n">
-        <v>25.03265453713245</v>
+        <v>10.28007305399935</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05048888062489738</v>
+        <v>-0.05260629549817503</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5206386096409703</v>
+        <v>-4.736297436477056</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05033806803980995</v>
+        <v>-0.05005044258505929</v>
       </c>
       <c r="H9" t="n">
-        <v>-7.294288524727774</v>
+        <v>-6.681222315975652</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04170076260994641</v>
+        <v>-0.03591552125889406</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.8720944195220574</v>
+        <v>13.1221199611973</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03371632804576223</v>
+        <v>-0.0428492229689811</v>
       </c>
       <c r="H11" t="n">
-        <v>19.42302265195491</v>
+        <v>-2.403229197044342</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0531084258957583</v>
+        <v>-0.05708069149332155</v>
       </c>
       <c r="H12" t="n">
-        <v>-8.090429088301745</v>
+        <v>-16.175095234048</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05714760270547058</v>
+        <v>-0.04439663729983802</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.895599357125286</v>
+        <v>16.17842981804774</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06632935415390005</v>
+        <v>-0.06723843975596186</v>
       </c>
       <c r="H14" t="n">
-        <v>10.67554791796848</v>
+        <v>9.451300006381359</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.07452476207423815</v>
+        <v>-0.07813172290204978</v>
       </c>
       <c r="H15" t="n">
-        <v>17.14772719926602</v>
+        <v>13.13771906009591</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3007865700708056</v>
+        <v>-0.2964629594142941</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.698492985632457</v>
+        <v>-1.222269168273105</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2964568052234434</v>
+        <v>-0.2898704248634097</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3836450045571957</v>
+        <v>2.596821401656977</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1331276029254292</v>
+        <v>-0.1485085300779253</v>
       </c>
       <c r="H18" t="n">
-        <v>9.009311594459394</v>
+        <v>-1.503317786428868</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1578751080391215</v>
+        <v>-0.1411276640250483</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.168333546743893</v>
+        <v>6.881877951328966</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1644062994392327</v>
+        <v>0.1757516752643751</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.634129433309793</v>
+        <v>-0.1911227210747524</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1836643641988634</v>
+        <v>0.1806696173967841</v>
       </c>
       <c r="H21" t="n">
-        <v>2.20081832942798</v>
+        <v>0.5343787062763353</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.129519138873811</v>
+        <v>0.1347706054344387</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.183178368873328</v>
+        <v>2.823435934893498</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1431295592141547</v>
+        <v>0.1375265916110118</v>
       </c>
       <c r="H23" t="n">
-        <v>4.702936183590649</v>
+        <v>0.6042219654266765</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08614672481337232</v>
+        <v>0.0874349579552242</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.311895382327683</v>
+        <v>-0.8510731142053742</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08710841525617177</v>
+        <v>0.09197358651862451</v>
       </c>
       <c r="H25" t="n">
-        <v>-6.160330543677117</v>
+        <v>-0.9192058856938643</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0573405605340493</v>
+        <v>0.05893733851454135</v>
       </c>
       <c r="H26" t="n">
-        <v>-9.533495979405913</v>
+        <v>-7.014250959008839</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06275844379826946</v>
+        <v>0.06643527028103235</v>
       </c>
       <c r="H27" t="n">
-        <v>9.811034983100559</v>
+        <v>16.2445297782121</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1094730620598857</v>
+        <v>-0.1086373053662676</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3754110629368466</v>
+        <v>1.135980973802727</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1045083062295007</v>
+        <v>-0.108322263499568</v>
       </c>
       <c r="H29" t="n">
-        <v>7.104198530416268</v>
+        <v>3.714031469478535</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1215056369384423</v>
+        <v>0.1151755694031199</v>
       </c>
       <c r="H30" t="n">
-        <v>6.486847421570574</v>
+        <v>0.9392123258950326</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1194107667707048</v>
+        <v>0.1234202689992427</v>
       </c>
       <c r="H31" t="n">
-        <v>1.789719410515122</v>
+        <v>5.207552809093005</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09839941545247154</v>
+        <v>0.09467919633004755</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7912292243763919</v>
+        <v>-3.019417989419897</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09868954323279618</v>
+        <v>0.1023326516453435</v>
       </c>
       <c r="H33" t="n">
-        <v>1.596800024755823</v>
+        <v>5.347229348204918</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06222565595206531</v>
+        <v>0.06051954092683644</v>
       </c>
       <c r="H34" t="n">
-        <v>7.885136201765527</v>
+        <v>4.927120748871188</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0655338049873555</v>
+        <v>0.06272689839458147</v>
       </c>
       <c r="H35" t="n">
-        <v>16.30880878755869</v>
+        <v>11.32713616460503</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01584896323801595</v>
+        <v>0.01818895678131525</v>
       </c>
       <c r="H36" t="n">
-        <v>-18.30546886670165</v>
+        <v>-6.243817104127895</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01319246516272547</v>
+        <v>0.01594174712320115</v>
       </c>
       <c r="H37" t="n">
-        <v>-21.94196760890415</v>
+        <v>-5.67483802576789</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2010747165029968</v>
+        <v>-0.1999092740193001</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.729075627563732</v>
+        <v>-2.13365104545089</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2116497295342301</v>
+        <v>-0.2136466771802822</v>
       </c>
       <c r="H39" t="n">
-        <v>-4.166851105963445</v>
+        <v>-5.149681315907422</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1550610861688888</v>
+        <v>0.1504114360963374</v>
       </c>
       <c r="H40" t="n">
-        <v>4.801166248949248</v>
+        <v>1.658606356635864</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1524443712941203</v>
+        <v>0.1620610969957976</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.488994571127271</v>
+        <v>1.536174694904566</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1076597479399578</v>
+        <v>0.1144863214694316</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.2117935122340272</v>
+        <v>6.115655158210222</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1201626565617271</v>
+        <v>0.1174789271889596</v>
       </c>
       <c r="H43" t="n">
-        <v>7.353352146797008</v>
+        <v>4.955707548506913</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0482598719914414</v>
+        <v>-0.04679501718347519</v>
       </c>
       <c r="H44" t="n">
-        <v>-17.09673254902153</v>
+        <v>-13.54243982934778</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.05326082729656531</v>
+        <v>-0.048327871005231</v>
       </c>
       <c r="H45" t="n">
-        <v>-27.93907367010507</v>
+        <v>-16.0895044763286</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04602192729660954</v>
+        <v>0.04314793594827451</v>
       </c>
       <c r="H46" t="n">
-        <v>6.962236263058194</v>
+        <v>0.2826259191158345</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04883246116117951</v>
+        <v>0.04335445596187503</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.167519817665013</v>
+        <v>-12.25450637179327</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01688642677988247</v>
+        <v>0.02036094078601289</v>
       </c>
       <c r="H48" t="n">
-        <v>36.14463211483177</v>
+        <v>64.15745195579451</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00914401515691185</v>
+        <v>0.01568623995182044</v>
       </c>
       <c r="H49" t="n">
-        <v>-51.65170067036722</v>
+        <v>-17.06017416497922</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08952050595045864</v>
+        <v>0.08729730325692456</v>
       </c>
       <c r="H50" t="n">
-        <v>7.45324758406111</v>
+        <v>4.784693078905907</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08501844689385496</v>
+        <v>0.09003485598655293</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.943195912871971</v>
+        <v>2.783521668063583</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02894940687355145</v>
+        <v>0.02791383652278011</v>
       </c>
       <c r="H52" t="n">
-        <v>-19.41432220821963</v>
+        <v>-22.29701127271384</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03669180342627985</v>
+        <v>0.0355676541354949</v>
       </c>
       <c r="H53" t="n">
-        <v>18.82904728292225</v>
+        <v>15.18840886360506</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06593990376165471</v>
+        <v>0.05577651200562823</v>
       </c>
       <c r="H54" t="n">
-        <v>10.40133539931054</v>
+        <v>-6.614946973612204</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0694027460004155</v>
+        <v>0.05987839447740955</v>
       </c>
       <c r="H55" t="n">
-        <v>7.157289940664609</v>
+        <v>-7.548233348593271</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07776909207081045</v>
+        <v>0.07489609247414995</v>
       </c>
       <c r="H56" t="n">
-        <v>2.191037804159691</v>
+        <v>-1.584174205855087</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07200677021471097</v>
+        <v>0.07670490990794811</v>
       </c>
       <c r="H57" t="n">
-        <v>-5.7467930025528</v>
+        <v>0.4028333685399575</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04375296149121594</v>
+        <v>0.04425048147120789</v>
       </c>
       <c r="H58" t="n">
-        <v>-6.918190250542571</v>
+        <v>-5.859746237936428</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04825863281660554</v>
+        <v>0.04452550137565476</v>
       </c>
       <c r="H59" t="n">
-        <v>9.118156247416447</v>
+        <v>0.6771293038258983</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0400176884102528</v>
+        <v>0.04688648027368812</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.734757370708387</v>
+        <v>15.13187150877596</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03954373155712528</v>
+        <v>0.0447498519139326</v>
       </c>
       <c r="H61" t="n">
-        <v>-2.760877243379671</v>
+        <v>10.0411158039889</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02825295927474377</v>
+        <v>-0.02921613616854859</v>
       </c>
       <c r="H62" t="n">
-        <v>-5.295730443356832</v>
+        <v>-8.885386790258625</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.02610604351596496</v>
+        <v>-0.02830201585708313</v>
       </c>
       <c r="H63" t="n">
-        <v>17.30771225637402</v>
+        <v>10.35185252995712</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08426241016604656</v>
+        <v>0.08105722503428091</v>
       </c>
       <c r="H64" t="n">
-        <v>-3.493591173731159</v>
+        <v>-7.164515208309688</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07918040903105113</v>
+        <v>0.08456190001493895</v>
       </c>
       <c r="H65" t="n">
-        <v>-8.186245174101833</v>
+        <v>-1.946129723338055</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01486212689201533</v>
+        <v>0.01814658542458726</v>
       </c>
       <c r="H66" t="n">
-        <v>-30.53111272493061</v>
+        <v>-15.17882289342188</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02077747325095634</v>
+        <v>0.02441524484694059</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.9955434012951754</v>
+        <v>16.3384026344215</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.004284388559068665</v>
+        <v>-0.001632196288572672</v>
       </c>
       <c r="H68" t="n">
-        <v>-2141.097935540068</v>
+        <v>-877.58411242841</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.00322727576816392</v>
+        <v>0.004597304559782259</v>
       </c>
       <c r="H69" t="n">
-        <v>-234.2575165430906</v>
+        <v>91.25192184606721</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07460422690603385</v>
+        <v>-0.07699576227008142</v>
       </c>
       <c r="H70" t="n">
-        <v>-9.696434791842625</v>
+        <v>-13.21289644548402</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06434393023854222</v>
+        <v>-0.06641698697287049</v>
       </c>
       <c r="H71" t="n">
-        <v>14.13242297290833</v>
+        <v>11.36590936149955</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05222037815470758</v>
+        <v>0.04798999829591222</v>
       </c>
       <c r="H72" t="n">
-        <v>10.97708656449727</v>
+        <v>1.98681785370058</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04483812836544827</v>
+        <v>0.04546887158842662</v>
       </c>
       <c r="H73" t="n">
-        <v>-12.69383490605989</v>
+        <v>-11.46568881779304</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05176182840110882</v>
+        <v>0.05238377957544258</v>
       </c>
       <c r="H74" t="n">
-        <v>19.90010064943813</v>
+        <v>21.34077635014534</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04474787497271315</v>
+        <v>0.04878572010967677</v>
       </c>
       <c r="H75" t="n">
-        <v>-1.554129653091943</v>
+        <v>7.329178863274727</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02739145424177441</v>
+        <v>0.02584680017868662</v>
       </c>
       <c r="H76" t="n">
-        <v>-11.59942297375129</v>
+        <v>-16.58449274323624</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03751251123200663</v>
+        <v>0.03045009207044881</v>
       </c>
       <c r="H77" t="n">
-        <v>27.668416485611</v>
+        <v>3.632492435172751</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03146661799921712</v>
+        <v>0.03372524549296807</v>
       </c>
       <c r="H78" t="n">
-        <v>-8.712271068086658</v>
+        <v>-2.159772340297315</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04129601150546903</v>
+        <v>0.03572840101588386</v>
       </c>
       <c r="H79" t="n">
-        <v>28.63044534133432</v>
+        <v>11.28823260324507</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03289001532244794</v>
+        <v>0.03959458343470555</v>
       </c>
       <c r="H80" t="n">
-        <v>11.61851716106291</v>
+        <v>34.37174313431986</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03748097256424428</v>
+        <v>0.03090276092760991</v>
       </c>
       <c r="H81" t="n">
-        <v>7.591928617932024</v>
+        <v>-11.29131875856745</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05164838274503469</v>
+        <v>0.05036162253469618</v>
       </c>
       <c r="H82" t="n">
-        <v>5.081056964046344</v>
+        <v>2.463082968052271</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05194138546778179</v>
+        <v>0.05216776953044523</v>
       </c>
       <c r="H83" t="n">
-        <v>0.68943864112937</v>
+        <v>1.128288779253217</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03867029518174885</v>
+        <v>0.03238781061576398</v>
       </c>
       <c r="H84" t="n">
-        <v>5.230784901843385</v>
+        <v>-11.86530342396615</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03407762794704772</v>
+        <v>0.03114698931209733</v>
       </c>
       <c r="H85" t="n">
-        <v>4.555738773635035</v>
+        <v>-4.435940108237991</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02890584864552448</v>
+        <v>0.02358566206942004</v>
       </c>
       <c r="H86" t="n">
-        <v>7.681872421079872</v>
+        <v>-12.13721883515006</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02661747326946653</v>
+        <v>0.03142130662061619</v>
       </c>
       <c r="H87" t="n">
-        <v>-20.84137784927677</v>
+        <v>-6.555092097469202</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05398651745781525</v>
+        <v>0.05116985916359067</v>
       </c>
       <c r="H88" t="n">
-        <v>-3.03526553448254</v>
+        <v>-8.094242042700458</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05614510821688138</v>
+        <v>0.0533669634078908</v>
       </c>
       <c r="H89" t="n">
-        <v>4.376388508831633</v>
+        <v>-0.7883129429291672</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.01907871327696845</v>
+        <v>-0.02183983825563981</v>
       </c>
       <c r="H90" t="n">
-        <v>20.30249357318836</v>
+        <v>8.768446568113966</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01960000609958248</v>
+        <v>-0.02355212824998519</v>
       </c>
       <c r="H91" t="n">
-        <v>5.401938019792281</v>
+        <v>-13.67270380621773</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0404616608456055</v>
+        <v>0.04552738424479216</v>
       </c>
       <c r="H92" t="n">
-        <v>2.079783288752445</v>
+        <v>14.85997905884031</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03814814609923719</v>
+        <v>0.04613688260225454</v>
       </c>
       <c r="H93" t="n">
-        <v>-21.01901419045825</v>
+        <v>-4.479330119320694</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04604259190406632</v>
+        <v>0.04927028077312178</v>
       </c>
       <c r="H94" t="n">
-        <v>3.45869276867982</v>
+        <v>10.71137897175616</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05208674589452987</v>
+        <v>0.05284505492868096</v>
       </c>
       <c r="H95" t="n">
-        <v>16.33915647463352</v>
+        <v>18.03288934016653</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1484948931683464</v>
+        <v>-0.1436841506358602</v>
       </c>
       <c r="H96" t="n">
-        <v>-1.04223241742503</v>
+        <v>2.231201131005432</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1603610106599853</v>
+        <v>-0.1576146052718358</v>
       </c>
       <c r="H97" t="n">
-        <v>-6.327819016284344</v>
+        <v>-4.506807201413221</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1369437242626776</v>
+        <v>0.1433532775691324</v>
       </c>
       <c r="H98" t="n">
-        <v>-3.770923247230901</v>
+        <v>0.7330100319219518</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1434557159475581</v>
+        <v>0.1481939573740614</v>
       </c>
       <c r="H99" t="n">
-        <v>-2.451485840756875</v>
+        <v>0.7704729904418485</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0219840608890291</v>
+        <v>0.02598569422376325</v>
       </c>
       <c r="H100" t="n">
-        <v>-5.452258619456471</v>
+        <v>11.75772799502819</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03038382345084465</v>
+        <v>0.02913659578287049</v>
       </c>
       <c r="H101" t="n">
-        <v>11.22808752077569</v>
+        <v>6.662278071672052</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01104625805207897</v>
+        <v>-0.01276322286595678</v>
       </c>
       <c r="H102" t="n">
-        <v>-42.69541400740625</v>
+        <v>-64.87514254510164</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.007845397629706929</v>
+        <v>-0.009766158703113608</v>
       </c>
       <c r="H103" t="n">
-        <v>-2.411825999281884</v>
+        <v>-27.48495270621552</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07817278475651675</v>
+        <v>0.07969974164242606</v>
       </c>
       <c r="H104" t="n">
-        <v>7.397072238656373</v>
+        <v>9.494870078302164</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07542712909770764</v>
+        <v>0.07845216882525123</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8534800734052377</v>
+        <v>4.898255309220868</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3556037070760355</v>
+        <v>-0.339547379524287</v>
       </c>
       <c r="H106" t="n">
-        <v>-2.595620274019852</v>
+        <v>2.036808611605473</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3453275224502168</v>
+        <v>-0.3567173060745619</v>
       </c>
       <c r="H107" t="n">
-        <v>8.219375720265385</v>
+        <v>5.192216332457844</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2301196815488995</v>
+        <v>0.228228291333314</v>
       </c>
       <c r="H108" t="n">
-        <v>2.31189061062521</v>
+        <v>1.470972930153488</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2333647487757188</v>
+        <v>0.242408509695004</v>
       </c>
       <c r="H109" t="n">
-        <v>4.814614840565082</v>
+        <v>8.876575022803458</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.06338941331308716</v>
+        <v>0.057830876624475</v>
       </c>
       <c r="H110" t="n">
-        <v>8.122126752590864</v>
+        <v>-1.358964442190232</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06915382342828144</v>
+        <v>0.06850170432418157</v>
       </c>
       <c r="H111" t="n">
-        <v>20.38862883278136</v>
+        <v>19.25336658860964</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1288227780881597</v>
+        <v>0.1295753924984609</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4020675734523511</v>
+        <v>0.9886411903332288</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1423264490251436</v>
+        <v>0.1316396561823411</v>
       </c>
       <c r="H113" t="n">
-        <v>8.698981607523852</v>
+        <v>0.5371571074410293</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>